--- a/MPRec.xlsx
+++ b/MPRec.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF48C6-DD0E-492E-91AC-408B1164B3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CCA85-B9BC-4411-9160-0B2D43A16F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="783" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="783" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
   <sheets>
     <sheet name="MP Diary" sheetId="14" r:id="rId1"/>
+    <sheet name="MyDiary" sheetId="15" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -42,9 +43,6 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>DESCRIPTION OF ACTIVITY</t>
-  </si>
-  <si>
     <t>5000 Driving Fee</t>
   </si>
   <si>
@@ -69,9 +67,6 @@
     <t>Total 250k Received</t>
   </si>
   <si>
-    <t>Rs. 50k for Office    /// Mazhar 80 Keera</t>
-  </si>
-  <si>
     <t>370k is in romal red bag</t>
   </si>
   <si>
@@ -100,6 +95,24 @@
   </si>
   <si>
     <t>20k Received for Office Expense</t>
+  </si>
+  <si>
+    <t>Received From BOFC me Rs.2000</t>
+  </si>
+  <si>
+    <t>Rs. 50k for Office    ///    Mazhar 80 Keera</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Received From BOFC me Rs.50,000 - 20k for office and 30 for me</t>
+  </si>
+  <si>
+    <t>Received Cash From BOFC me Rs.45,000 - 15k for office and 30 for me</t>
+  </si>
+  <si>
+    <t>MEMO RECORD - RECEIVED AMOUNT FROM NAJEEB MARWAT</t>
   </si>
 </sst>
 </file>
@@ -109,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-420]dddd\,\ dd\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +161,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +213,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -290,11 +329,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -334,6 +410,29 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,6 +459,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,22 +779,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAA606F-CC49-4589-9073-02B853DCED0A}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.15625" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="78" customWidth="1"/>
-    <col min="4" max="4" width="29.15625" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="36.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
@@ -703,7 +805,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="19.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -711,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -723,7 +825,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -731,10 +833,10 @@
         <v>44079</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -743,13 +845,15 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
       <c r="B4" s="14">
         <v>44094</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="1"/>
@@ -759,9 +863,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13">
-        <v>2</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>3</v>
       </c>
       <c r="B5" s="12">
         <v>44103</v>
@@ -779,18 +883,18 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="21">
-        <v>3</v>
-      </c>
-      <c r="B6" s="19">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28">
         <v>44105</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -799,11 +903,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="1"/>
@@ -813,17 +917,17 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="21">
-        <v>4</v>
-      </c>
-      <c r="B8" s="19">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28">
         <v>44105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="1"/>
@@ -833,13 +937,13 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="35"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -847,13 +951,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="D10" s="35"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -861,13 +965,13 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="35"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -875,13 +979,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="36"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -889,11 +993,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="22"/>
-      <c r="B13" s="20"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="1"/>
@@ -903,15 +1007,15 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="12">
         <v>44109</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="1"/>
@@ -921,15 +1025,15 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="21">
-        <v>6</v>
-      </c>
-      <c r="B15" s="19">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>7</v>
+      </c>
+      <c r="B15" s="28">
         <v>44112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="1"/>
@@ -939,11 +1043,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="1"/>
@@ -953,11 +1057,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="22"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="1"/>
@@ -967,13 +1071,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>8</v>
+      </c>
       <c r="B18" s="12">
         <v>44113</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="1"/>
@@ -983,13 +1089,15 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>9</v>
+      </c>
       <c r="B19" s="12">
         <v>44122</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>1</v>
@@ -1001,11 +1109,19 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12">
+        <v>44131</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1013,11 +1129,19 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12">
+        <v>44139</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1025,11 +1149,17 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="12">
+        <v>44167</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1037,7 +1167,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="12"/>
       <c r="C23" s="3"/>
@@ -1049,7 +1179,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="12"/>
       <c r="C24" s="3"/>
@@ -1061,7 +1191,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="12"/>
       <c r="C25" s="3"/>
@@ -1073,7 +1203,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="12"/>
       <c r="C26" s="3"/>
@@ -1085,7 +1215,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="12"/>
       <c r="C27" s="3"/>
@@ -1097,7 +1227,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="12"/>
       <c r="C28" s="3"/>
@@ -1109,7 +1239,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="12"/>
       <c r="C29" s="3"/>
@@ -1121,7 +1251,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="12"/>
       <c r="C30" s="3"/>
@@ -1133,7 +1263,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="12"/>
       <c r="C31" s="3"/>
@@ -1145,7 +1275,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="12"/>
       <c r="C32" s="3"/>
@@ -1157,7 +1287,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="12"/>
       <c r="C33" s="3"/>
@@ -1169,7 +1299,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="10"/>
       <c r="C34" s="3"/>
@@ -1181,7 +1311,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="10"/>
       <c r="C35" s="3"/>
@@ -1193,7 +1323,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="10"/>
       <c r="C36" s="3"/>
@@ -1205,7 +1335,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="10"/>
       <c r="C37" s="3"/>
@@ -1217,7 +1347,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="10"/>
       <c r="C38" s="3"/>
@@ -1229,7 +1359,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1237,7 +1367,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1245,7 +1375,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1253,7 +1383,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1261,7 +1391,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1269,7 +1399,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1277,7 +1407,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1285,7 +1415,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1293,7 +1423,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1301,7 +1431,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1309,7 +1439,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1317,7 +1447,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1325,7 +1455,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1333,7 +1463,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1341,7 +1471,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1349,7 +1479,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1357,7 +1487,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1365,7 +1495,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1373,7 +1503,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1381,7 +1511,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1389,7 +1519,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1397,7 +1527,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1405,7 +1535,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1413,7 +1543,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1421,7 +1551,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1429,7 +1559,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1437,7 +1567,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1445,7 +1575,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -1453,7 +1583,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1461,7 +1591,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -1469,7 +1599,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -1477,7 +1607,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -1485,7 +1615,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -1493,7 +1623,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -1501,7 +1631,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -1509,7 +1639,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -1517,7 +1647,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -1525,7 +1655,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -1533,7 +1663,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -1541,7 +1671,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -1549,7 +1679,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -1557,7 +1687,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -1565,7 +1695,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -1573,7 +1703,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -1581,7 +1711,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -1589,7 +1719,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -1597,7 +1727,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -1605,7 +1735,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -1613,7 +1743,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -1621,7 +1751,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -1629,7 +1759,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -1650,4 +1780,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F79B1-F28D-48D6-98F5-689442E0C7C9}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="71.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>44079</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24">
+        <v>44094</v>
+      </c>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24">
+        <v>44103</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24">
+        <v>44105</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>